--- a/biology/Botanique/Alpinia_arundelliana/Alpinia_arundelliana.xlsx
+++ b/biology/Botanique/Alpinia_arundelliana/Alpinia_arundelliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia  arundelliana  est une espèce de plantes à fleurs du genre Alpinia et de la famille des Zingiberaceae. C'est une plante herbacée vivace originaire du Sud Est du Queensland au Centre Est de la Nouvelle-Galles du Sud en Australie.
 Il est similaire à Alpinia caerulea mais avec des grappes florales plus courtes et des feuilles plus étroites.
-En 1904, Karl Moritz Schumann, botaniste allemand, en fait la description en latin dans le journal botanique Das Pflanzenreich édité par le botaniste allemand « Adolf Engler ».  Volume IV. 46, Cahier (Heft) 20 de 1904, page 318[1].
+En 1904, Karl Moritz Schumann, botaniste allemand, en fait la description en latin dans le journal botanique Das Pflanzenreich édité par le botaniste allemand « Adolf Engler ».  Volume IV. 46, Cahier (Heft) 20 de 1904, page 318.
 Frederick Manson Bailey, botaniste australien d'origine anglaise, en a fait la première description en 1895 sous le nom de Alpinia caerulea var. arundelliana.
 </t>
         </is>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,6 +555,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +583,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +610,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alpinia caerulea var. arundelliana F.M.Bailey, (1895)</t>
         </is>
